--- a/flows/work/.tag/发票自动化处理统计报表.xlsx
+++ b/flows/work/.tag/发票自动化处理统计报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\flows\work\.tag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BA2024-2E86-41CA-8A86-0C6BECB27EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB65A7B-21BB-4B69-81F8-11B97487D8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="1035" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="1035" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="发票数据详情" sheetId="1" r:id="rId1"/>
@@ -683,13 +683,43 @@
     <t>交易关系汇总</t>
   </si>
   <si>
+    <t>大客户</t>
+  </si>
+  <si>
     <t>客户</t>
   </si>
   <si>
     <t>收关市海机场(苏))有限司, 上海志胜生物科技有限公司帐</t>
   </si>
   <si>
-    <t>大客户</t>
+    <t>一般客户</t>
+  </si>
+  <si>
+    <t>浙江大学医学院附属邵逸夫医院, 深圳市购机汇网络有限公司</t>
+  </si>
+  <si>
+    <t>供应商</t>
+  </si>
+  <si>
+    <t>浙江省地方税务局, 杭州联迅生物科技有限公司, 江大学, 上海杰肽生物科技有限公司</t>
+  </si>
+  <si>
+    <t>一般供应商</t>
+  </si>
+  <si>
+    <t>北京诺诚嘉信仪器有限公司, 广州晶东贸易有限公司</t>
+  </si>
+  <si>
+    <t>当前购买量最大的3个买方</t>
+  </si>
+  <si>
+    <t>深圳市购机汇网络有限公司, 收关市海机场(苏))有限司, 浙江大学</t>
+  </si>
+  <si>
+    <t>当前卖出量最大的3个卖方</t>
+  </si>
+  <si>
+    <t>广州晶东贸易有限公司, 江大学, 杭州联迅生物科技有限公司</t>
   </si>
   <si>
     <t>最频繁交易关系</t>
@@ -698,73 +728,43 @@
     <t>客户：深圳市购机汇网络有限公司 - 供应商：广州晶东贸易有限公司</t>
   </si>
   <si>
-    <t>一般客户</t>
-  </si>
-  <si>
-    <t>浙江大学医学院附属邵逸夫医院, 深圳市购机汇网络有限公司</t>
-  </si>
-  <si>
-    <t>一般供应商</t>
-  </si>
-  <si>
-    <t>北京诺诚嘉信仪器有限公司, 广州晶东贸易有限公司</t>
-  </si>
-  <si>
-    <t>供应商</t>
-  </si>
-  <si>
-    <t>浙江省地方税务局, 杭州联迅生物科技有限公司, 江大学, 上海杰肽生物科技有限公司</t>
-  </si>
-  <si>
-    <t>当前购买量最大的3个买方</t>
-  </si>
-  <si>
-    <t>深圳市购机汇网络有限公司, 收关市海机场(苏))有限司, 浙江大学</t>
-  </si>
-  <si>
-    <t>当前卖出量最大的3个卖方</t>
-  </si>
-  <si>
-    <t>广州晶东贸易有限公司, 江大学, 杭州联迅生物科技有限公司</t>
-  </si>
-  <si>
     <t>发票审批状态汇总</t>
   </si>
   <si>
+    <t>总发票数量</t>
+  </si>
+  <si>
+    <t>通过发票数量</t>
+  </si>
+  <si>
+    <t>不通过发票数量</t>
+  </si>
+  <si>
+    <t>转人工审批发票数量</t>
+  </si>
+  <si>
     <t>审批状态比例</t>
   </si>
   <si>
     <t>1.25% / 54.83% / 43.93%</t>
   </si>
   <si>
-    <t>通过发票数量</t>
+    <t>发票最大金额</t>
+  </si>
+  <si>
+    <t>发票最小金额</t>
   </si>
   <si>
     <t>发票平均金额</t>
   </si>
   <si>
+    <t>最多转人工审批原因</t>
+  </si>
+  <si>
+    <t>无法识别发票 错误码：{10909} 人工审批</t>
+  </si>
+  <si>
     <t>重复发票张数</t>
-  </si>
-  <si>
-    <t>转人工审批发票数量</t>
-  </si>
-  <si>
-    <t>发票最大金额</t>
-  </si>
-  <si>
-    <t>发票最小金额</t>
-  </si>
-  <si>
-    <t>最多转人工审批原因</t>
-  </si>
-  <si>
-    <t>无法识别发票 错误码：{10909} 人工审批</t>
-  </si>
-  <si>
-    <t>不通过发票数量</t>
-  </si>
-  <si>
-    <t>总发票数量</t>
   </si>
 </sst>
 </file>
@@ -1136,16 +1136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -5007,9 +5000,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -5022,31 +5012,31 @@
         <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -5099,7 +5089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -5113,13 +5103,13 @@
       <c r="A2" t="s">
         <v>235</v>
       </c>
-      <c r="B2" t="s">
-        <v>236</v>
+      <c r="B2">
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -5127,26 +5117,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4">
-        <v>3215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
         <v>240</v>
-      </c>
-      <c r="B6">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -5169,16 +5159,16 @@
       <c r="A9" t="s">
         <v>243</v>
       </c>
-      <c r="B9" t="s">
-        <v>244</v>
+      <c r="B9">
+        <v>3215</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
         <v>245</v>
-      </c>
-      <c r="B10">
-        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -5186,7 +5176,7 @@
         <v>246</v>
       </c>
       <c r="B11">
-        <v>321</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
